--- a/estudoEstacaoSeca/Resultados/Estacoes_Resumo.xlsx
+++ b/estudoEstacaoSeca/Resultados/Estacoes_Resumo.xlsx
@@ -468,13 +468,13 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
         <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>1985</v>
       </c>
       <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28</v>
-      </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
+        <v>33</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" t="n">
         <v>48</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26</v>
-      </c>
-      <c r="E13" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
+        <v>37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
         <v>48</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21</v>
-      </c>
-      <c r="E16" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E18" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29</v>
+      </c>
+      <c r="E21" t="n">
         <v>44</v>
-      </c>
-      <c r="D21" t="n">
-        <v>19</v>
-      </c>
-      <c r="E21" t="n">
-        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E25" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
+        <v>40</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="n">
         <v>47</v>
-      </c>
-      <c r="D27" t="n">
-        <v>24</v>
-      </c>
-      <c r="E27" t="n">
-        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C32" t="n">
+        <v>32</v>
+      </c>
+      <c r="D32" t="n">
+        <v>26</v>
+      </c>
+      <c r="E32" t="n">
         <v>47</v>
-      </c>
-      <c r="D32" t="n">
-        <v>23</v>
-      </c>
-      <c r="E32" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C34" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -1026,10 +1026,10 @@
         <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D35" t="n">
         <v>37</v>
@@ -1043,16 +1043,16 @@
         <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D36" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E36" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C37" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E37" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -1111,10 +1111,10 @@
         <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n">
         <v>25</v>
@@ -1128,16 +1128,16 @@
         <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
         <v>48</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E41" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>2022</v>
       </c>
       <c r="B43" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E43" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>2023</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E44" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
